--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>ENTRADAS</t>
   </si>
   <si>
-    <t>2021-10-30</t>
+    <t>2021-10-01</t>
   </si>
   <si>
     <t>---</t>
   </si>
   <si>
-    <t>2022-02-28</t>
+    <t>2022-03-01</t>
   </si>
   <si>
     <t>RUBRO</t>
@@ -50,70 +50,190 @@
     <t>ACIDO</t>
   </si>
   <si>
-    <t xml:space="preserve">RESORTE D / RETRACCIÃ“N </t>
-  </si>
-  <si>
     <t>PIEZA</t>
   </si>
   <si>
     <t>AGROQUIMICO</t>
   </si>
   <si>
+    <t>INEX A</t>
+  </si>
+  <si>
+    <t>LITRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMISTAR </t>
+  </si>
+  <si>
+    <t>KILOGRAMOS</t>
+  </si>
+  <si>
+    <t>ANAMEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVOLANT </t>
+  </si>
+  <si>
+    <t>ROVRAL 50PH</t>
+  </si>
+  <si>
+    <t>KILO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAROX </t>
+  </si>
+  <si>
+    <t>SPIDNOVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABRIO C </t>
+  </si>
+  <si>
+    <t>CAPTAN 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITCH 62.5 WG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEAN CROP </t>
+  </si>
+  <si>
     <t xml:space="preserve">PH ADIX </t>
   </si>
   <si>
-    <t>LITRO</t>
-  </si>
-  <si>
-    <t>INEX A</t>
+    <t>BREAKTHRU</t>
   </si>
   <si>
     <t>RIMON 100</t>
   </si>
   <si>
-    <t xml:space="preserve">AMISTAR </t>
-  </si>
-  <si>
-    <t>KILOGRAMOS</t>
-  </si>
-  <si>
-    <t>CAPTAN 50</t>
+    <t>SPINTOR 12SC</t>
+  </si>
+  <si>
+    <t>PROGRANIC GAMMA</t>
+  </si>
+  <si>
+    <t>INNOMIX</t>
+  </si>
+  <si>
+    <t>PROGRANIC MEGA</t>
+  </si>
+  <si>
+    <t>ALIETTE</t>
+  </si>
+  <si>
+    <t>KLERAL</t>
+  </si>
+  <si>
+    <t>GNATROL</t>
+  </si>
+  <si>
+    <t>BIOXAN</t>
+  </si>
+  <si>
+    <t>AKRON</t>
+  </si>
+  <si>
+    <t>VALTAR</t>
+  </si>
+  <si>
+    <t>BENOM</t>
+  </si>
+  <si>
+    <t>TRAMPAS PARA DUPONCHELIA</t>
+  </si>
+  <si>
+    <t>SAVEY</t>
+  </si>
+  <si>
+    <t>ERGER</t>
   </si>
   <si>
     <t>ALTER</t>
   </si>
   <si>
-    <t xml:space="preserve">PAROX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVOLANT </t>
-  </si>
-  <si>
     <t>FERRETERIA</t>
   </si>
   <si>
+    <t>LLAVE PARA TUBO</t>
+  </si>
+  <si>
+    <t>PTR 2X2 CAL 14</t>
+  </si>
+  <si>
+    <t>SOLDADURA VERSA T 1/8 X 14</t>
+  </si>
+  <si>
+    <t>ESMALTE ALQUIDALICO BLANCO 4 L</t>
+  </si>
+  <si>
+    <t>PIJA PUNTA DE BROCA 14X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFIL TUBULAR VARIOS 6MTS </t>
+  </si>
+  <si>
+    <t>DISCO P7CORTE METAL 14.</t>
+  </si>
+  <si>
+    <t>LAM. ALUM-ZINC RECT CAL30 .82X5</t>
+  </si>
+  <si>
+    <t>TROPIMAR ESMALTE ALQUIDALICO (1000) BLANCO 4 LTS</t>
+  </si>
+  <si>
+    <t>TUBO 1 C/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCHA 2 PULG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISAGRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLDADURA 1/8 </t>
+  </si>
+  <si>
+    <t>LAM.R72 DE 3.05 CAL 30</t>
+  </si>
+  <si>
+    <t>LAM.R72 DE 5 CAL 30</t>
+  </si>
+  <si>
+    <t>PUNTA BROCA 1 PULG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DADO EXAGONAL 5/16 PUL, IMANTADO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RONDANA VULCANIZADA CH </t>
+  </si>
+  <si>
     <t xml:space="preserve">PTR 2 X 2  CAL 14. </t>
   </si>
   <si>
-    <t xml:space="preserve">PERFIL TUBULAR VARIOS 6MTS </t>
-  </si>
-  <si>
-    <t>SOLDADURA VERSA T 1/8 X 14</t>
-  </si>
-  <si>
     <t>LAM.ALUM-ZINC RECT CAL. 30</t>
   </si>
   <si>
     <t>PZA</t>
   </si>
   <si>
-    <t>LAM. ALUM-ZINC RECT CAL30 .82X5</t>
-  </si>
-  <si>
     <t xml:space="preserve">PIJA PUNT DE BROCA 14 X 1 C / AC </t>
   </si>
   <si>
-    <t>TROPIMAR ESMALTE ALQUIDALICO (1000) BLANCO 4 LTS</t>
+    <t>ESPUMA D  POLIUR USO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>RATONERA DE JAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINTURA BLANCA  1 TS </t>
+  </si>
+  <si>
+    <t>TINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCHA 2.5 PULG </t>
   </si>
   <si>
     <t xml:space="preserve">LAMPARA LED EMPOTRABLE Y AJUSTABLE </t>
@@ -122,13 +242,7 @@
     <t>ALARMA DE HUMO</t>
   </si>
   <si>
-    <t xml:space="preserve">PINTURA BLANCA  1 TS </t>
-  </si>
-  <si>
-    <t>TINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCHA 2.5 PULG </t>
+    <t>POLEA DEL CORDON</t>
   </si>
   <si>
     <t>LONA AZ</t>
@@ -137,138 +251,219 @@
     <t xml:space="preserve">LONA GR </t>
   </si>
   <si>
-    <t>ESPUMA D  POLIUR USO INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>RATONERA DE JAULA</t>
-  </si>
-  <si>
-    <t>LLAVE PARA TUBO</t>
-  </si>
-  <si>
-    <t>TUBO 1 C/30</t>
-  </si>
-  <si>
-    <t>DISCO P7CORTE METAL 14.</t>
-  </si>
-  <si>
-    <t>POLEA DEL CORDON</t>
-  </si>
-  <si>
     <t>FERTILIZANTE</t>
   </si>
   <si>
+    <t xml:space="preserve">MAXI GROW EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINECOVERAGE </t>
+  </si>
+  <si>
+    <t>NITRATO DE CALCIO</t>
+  </si>
+  <si>
+    <t>SULFATO DE ZINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAKAPHOS VIOLETA </t>
+  </si>
+  <si>
+    <t>KELPAK</t>
+  </si>
+  <si>
+    <t>SULFATO DE AMONIO</t>
+  </si>
+  <si>
+    <t>NKS NITRATO DE POTASIO</t>
+  </si>
+  <si>
+    <t>SULFATO DE POTASIO</t>
+  </si>
+  <si>
+    <t>AEROBIOT ALFA 2</t>
+  </si>
+  <si>
+    <t>KELPRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIDO FOSFORICO </t>
+  </si>
+  <si>
+    <t>METABOLIC</t>
+  </si>
+  <si>
+    <t>GRAMOS</t>
+  </si>
+  <si>
+    <t>BORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACADIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIDO SULFURICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELAZA </t>
+  </si>
+  <si>
+    <t>AMINOVA</t>
+  </si>
+  <si>
+    <t>KELATEX ZINC</t>
+  </si>
+  <si>
+    <t>PROTEINA</t>
+  </si>
+  <si>
+    <t>B-100 AMYL</t>
+  </si>
+  <si>
+    <t>AKIMEL</t>
+  </si>
+  <si>
+    <t>CITAN</t>
+  </si>
+  <si>
+    <t>BIO-TRICHO</t>
+  </si>
+  <si>
+    <t>FERMENTO</t>
+  </si>
+  <si>
+    <t>TRICHOZAR</t>
+  </si>
+  <si>
+    <t>XEXE</t>
+  </si>
+  <si>
+    <t>BIOVEG</t>
+  </si>
+  <si>
+    <t>GORDEX</t>
+  </si>
+  <si>
+    <t>CHARGERPLEX</t>
+  </si>
+  <si>
     <t>GREENSOL</t>
   </si>
   <si>
-    <t>NITRATO DE CALCIO</t>
-  </si>
-  <si>
-    <t>KILO</t>
-  </si>
-  <si>
-    <t>NKS NITRATO DE POTASIO</t>
-  </si>
-  <si>
-    <t>AEROBIOT ALFA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACIDO FOSFORICO </t>
-  </si>
-  <si>
-    <t>METABOLIC</t>
-  </si>
-  <si>
-    <t>GRAMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELAZA </t>
-  </si>
-  <si>
-    <t>SULFATO DE AMONIO</t>
-  </si>
-  <si>
-    <t>SULFATO DE POTASIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAKAPHOS VIOLETA </t>
-  </si>
-  <si>
-    <t>KELATEX ZINC</t>
-  </si>
-  <si>
-    <t>SULFATO DE ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINECOVERAGE </t>
-  </si>
-  <si>
-    <t>PROTEINA</t>
-  </si>
-  <si>
-    <t>FERMENTO</t>
-  </si>
-  <si>
-    <t>B-100 AMYL</t>
-  </si>
-  <si>
-    <t>BIO-TRICHO</t>
+    <t>ROCA FOSFORICA</t>
+  </si>
+  <si>
+    <t>SULFATO DE COBRE</t>
+  </si>
+  <si>
+    <t>SULFATO DE MANGANESO</t>
+  </si>
+  <si>
+    <t>AEROBIOT ALFA 1</t>
+  </si>
+  <si>
+    <t>MICORRISAS LABMA</t>
   </si>
   <si>
     <t>BASUTIL</t>
   </si>
   <si>
-    <t>MICORRISAS LABMA</t>
-  </si>
-  <si>
-    <t>AEROBIOT ALFA 1</t>
-  </si>
-  <si>
-    <t>ROCA FOSFORICA</t>
-  </si>
-  <si>
-    <t>SULFATO DE COBRE</t>
-  </si>
-  <si>
-    <t>SULFATO DE MANGANESO</t>
-  </si>
-  <si>
     <t>INFRAESTRUCTURA</t>
   </si>
   <si>
+    <t>PLASTICO UV2 DIFUS.25% DE 7.30 M</t>
+  </si>
+  <si>
+    <t>ROLLO</t>
+  </si>
+  <si>
+    <t>MALLA ANTIGRANIZO CRISTAL 1.85 X 60 MTS</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>MALLA ANTIGRANIZO CRISTAL 7.30 X 104 MTS</t>
+  </si>
+  <si>
+    <t>ABRAZADERA GALVANIZADA DE 1.315 PUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAZADERA GALVANIZADA DE 1.66 </t>
+  </si>
+  <si>
+    <t>PIJA-BROCA  1/4 X 1 DM %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAZADERA GALVANIZADA DE 1.315  CON TORNILLO MD% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAZADERA GALVANIZADA DE 1.66  CON TORNILLO MD% </t>
+  </si>
+  <si>
+    <t>PIJA P. BROCA DR HX 10 X 3/4 PULG</t>
+  </si>
+  <si>
+    <t>ALAMBRE ZIGZAG GALVANIZADO CAL 13 10 KG</t>
+  </si>
+  <si>
+    <t>ROLLOS</t>
+  </si>
+  <si>
+    <t>PERFIL SUJETADOR GALVANIZADO CAL 22 3M LARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIJA AUTOPERFORANTE PARA PERFIL </t>
+  </si>
+  <si>
+    <t>BOLSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTA PHILLIPS </t>
+  </si>
+  <si>
+    <t>ABRAZADERA GALV. 42X33 ESTACA (TOR Y TUERC)</t>
+  </si>
+  <si>
+    <t>ABRAZADERA GALV 32X20 ARCO</t>
+  </si>
+  <si>
+    <t>SOGA NEGRA CORTADA A 11 MTS C.8</t>
+  </si>
+  <si>
+    <t>MALLA ANTIPAJARO 5.20 M X 500 M</t>
+  </si>
+  <si>
     <t>POLIDUCTO NEGRO DE 3/4</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAVEZAÃ‘O GALVANIZADO 3.65 M </t>
-  </si>
-  <si>
-    <t>ABRAZADERA GALV. 42X33 ESTACA (TOR Y TUERC)</t>
-  </si>
-  <si>
-    <t>ABRAZADERA GALV 32X20 ARCO</t>
-  </si>
-  <si>
-    <t>SOGA NEGRA CORTADA A 11 MTS C.8</t>
-  </si>
-  <si>
-    <t>MALLA ANTIPAJARO 5.20 M X 500 M</t>
-  </si>
-  <si>
     <t>ESFERAS DE UNICEL NO.7</t>
   </si>
   <si>
     <t xml:space="preserve">ARMEX </t>
   </si>
   <si>
+    <t>INOCUIDAD</t>
+  </si>
+  <si>
+    <t>CAJA PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>CAJA TOALLA INTERDOBLADA</t>
+  </si>
+  <si>
+    <t>OVEROL DE TELA</t>
+  </si>
+  <si>
     <t>MANO DE OBRA</t>
   </si>
   <si>
+    <t>FINIQUITO</t>
+  </si>
+  <si>
     <t>NOMINA</t>
   </si>
   <si>
-    <t>FINIQUITO</t>
-  </si>
-  <si>
     <t>MAQ. AGRICOLA</t>
   </si>
   <si>
@@ -302,33 +497,69 @@
     <t>TEE 160 X 160 MM</t>
   </si>
   <si>
+    <t xml:space="preserve">MOTOBOMBA </t>
+  </si>
+  <si>
     <t>OTROS</t>
   </si>
   <si>
+    <t>AGUA CIEL</t>
+  </si>
+  <si>
+    <t>GARRAF0N 20 LTS</t>
+  </si>
+  <si>
+    <t>IMPORTE IMSS, RCV E INFONAVIT</t>
+  </si>
+  <si>
+    <t>RECARGA DE KIT ANALIZADOR</t>
+  </si>
+  <si>
+    <t>CEMENTO</t>
+  </si>
+  <si>
+    <t>CODO CPVC 1/2</t>
+  </si>
+  <si>
+    <t>COLECTA DE BASURA</t>
+  </si>
+  <si>
+    <t>DISPOSICIONES DE EFECTIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAJES DE MATERIALES PETREOS </t>
+  </si>
+  <si>
     <t>GASOLINA</t>
   </si>
   <si>
+    <t>PALILLO P/DIENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAQUETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTAMO DE EFECTIVO </t>
+  </si>
+  <si>
     <t xml:space="preserve">DIESEL </t>
   </si>
   <si>
+    <t xml:space="preserve">JARRA TRANSPARENTE </t>
+  </si>
+  <si>
     <t>JARRA  TRANSPARENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">JARRA TRANSPARENTE </t>
-  </si>
-  <si>
     <t xml:space="preserve">PROBETA GRADUADA </t>
   </si>
   <si>
-    <t>RECARGA DE KIT ANALIZADOR</t>
+    <t xml:space="preserve">ATOMIZADOR INDUSTRIAL </t>
   </si>
   <si>
     <t xml:space="preserve">ATOMIZADOR CILINDRO PLASTICO .500 ML </t>
   </si>
   <si>
-    <t xml:space="preserve">ATOMIZADOR INDUSTRIAL </t>
-  </si>
-  <si>
     <t>ESTUDIOS DE LABORATORIO T COLINESTERASA</t>
   </si>
   <si>
@@ -338,55 +569,142 @@
     <t xml:space="preserve">RECARGA EXTINT 4.5 </t>
   </si>
   <si>
-    <t>IMPORTE IMSS, RCV E INFONAVIT</t>
-  </si>
-  <si>
-    <t>CODO CPVC 1/2</t>
-  </si>
-  <si>
-    <t>CEMENTO</t>
-  </si>
-  <si>
-    <t>CINTA DE SEÃ‘ALIZACION AMARILLA</t>
+    <t>PAPELERIA</t>
+  </si>
+  <si>
+    <t>BROCHE ACME  8 CM</t>
+  </si>
+  <si>
+    <t>CORRECTOR</t>
+  </si>
+  <si>
+    <t>GRAPAS ESTANDAR PILOT C/5040</t>
+  </si>
+  <si>
+    <t>PTE</t>
+  </si>
+  <si>
+    <t>SACAPUNTAS</t>
+  </si>
+  <si>
+    <t>CLIP JUMBO</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIP CUADRADITO #1 </t>
+  </si>
+  <si>
+    <t>CLIP CUADRADITO # 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCK POST IT </t>
+  </si>
+  <si>
+    <t>BLOCK POST IT C/ INDIC</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO AMARILLO</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO VERDE</t>
+  </si>
+  <si>
+    <t>MARCADOR NEGRO</t>
+  </si>
+  <si>
+    <t>BOLIGRAFO MEDIANO AZUL</t>
+  </si>
+  <si>
+    <t>BOLIGRAFO  PUNTO FINO AZUL</t>
+  </si>
+  <si>
+    <t>LAPIZ MIRADO #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUADERNO PROF </t>
+  </si>
+  <si>
+    <t>BOLIGRAFO MEDIANO NEGRO</t>
+  </si>
+  <si>
+    <t>BOLIGRAFO PUNTO FINO NEGRO</t>
+  </si>
+  <si>
+    <t>MICA TERMICA CTA 10 MIL</t>
+  </si>
+  <si>
+    <t>FOLDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMACHE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINZA GRANDE </t>
+  </si>
+  <si>
+    <t>10 PZA</t>
   </si>
   <si>
     <t>SERVICIOS</t>
   </si>
   <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>PASAJES JARACUARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUZ REBOMBEO </t>
+  </si>
+  <si>
+    <t>LUZ POZO PROFUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICIO DE TRANSPORTE </t>
+  </si>
+  <si>
+    <t>ANALISIS DE EXTRACTO DE PASTA</t>
+  </si>
+  <si>
+    <t>SERVICIO DE TELEFONÃA CELULAR</t>
+  </si>
+  <si>
+    <t>SERVICIO DE MANTENIMIENTO DE IMPRESORA</t>
+  </si>
+  <si>
+    <t>P. VACACIONES</t>
+  </si>
+  <si>
+    <t>INGRESO DE EFEC. CAJA CHICA</t>
+  </si>
+  <si>
     <t xml:space="preserve">RECIBOS DE LUZ MAGDALENA </t>
   </si>
   <si>
+    <t xml:space="preserve">SERVICIO DE ASESORAMIENTO AGRÃCOLA </t>
+  </si>
+  <si>
     <t>RETORNO DE PRESTAMO</t>
   </si>
   <si>
     <t>SERVICIO DE TELEFONIA MOVIL ASMS</t>
   </si>
   <si>
-    <t xml:space="preserve">SERVICIO DE ASESORAMIENTO AGRÃCOLA </t>
-  </si>
-  <si>
-    <t>P. VACACIONES</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERVICIO DE FLETE </t>
   </si>
   <si>
-    <t>ANALISIS DE EXTRACTO DE PASTA</t>
-  </si>
-  <si>
-    <t>SERVICIO DE TELEFONÃA CELULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUZ REBOMBEO </t>
-  </si>
-  <si>
-    <t>LUZ POZO PROFUNDO</t>
-  </si>
-  <si>
     <t>VEHICULOS</t>
   </si>
   <si>
+    <t>TALACHA</t>
+  </si>
+  <si>
     <t>GASOLINA VARIOS USOS</t>
+  </si>
+  <si>
+    <t>BUJIAS</t>
   </si>
   <si>
     <t xml:space="preserve">BATERIA </t>
@@ -778,10 +1096,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E112" sqref="E112"/>
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,9 +1107,9 @@
     <col min="6" max="6" width="18.995361" bestFit="true" customWidth="true" style="2"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="2"/>
     <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="57.700195" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="60.128174" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13.85376" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -843,14 +1161,14 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>306.008</v>
@@ -858,10 +1176,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>23654.98</v>
+        <v>116809.918</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -870,30 +1188,30 @@
     </row>
     <row r="6" spans="1:6">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>2790</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="2">
-        <v>1583</v>
+        <v>2359.98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -904,10 +1222,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>3950</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -915,27 +1233,27 @@
         <v>18</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
-        <v>2359.98</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="2">
-        <v>2256</v>
+        <v>9945</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -943,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>2360</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -957,13 +1275,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
-        <v>3400</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -971,39 +1289,41 @@
         <v>23</v>
       </c>
       <c r="D13" s="5">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2">
-        <v>4956</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
-        <v>22174.291752</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2256</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="5">
-        <v>55.12</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2">
-        <v>2977.009152</v>
+        <v>21287.94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1011,13 +1331,13 @@
         <v>26</v>
       </c>
       <c r="D16" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>2684.1936</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1025,13 +1345,13 @@
         <v>27</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2">
-        <v>198.012</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1039,245 +1359,245 @@
         <v>28</v>
       </c>
       <c r="D18" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2">
-        <v>4180.06</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>6860.01</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2">
-        <v>649.6</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>904.012</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2">
-        <v>779.056</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2">
-        <v>493.359</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2">
-        <v>1099.98</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2">
-        <v>105</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2">
-        <v>20</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2">
-        <v>196.36</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2">
-        <v>66.82</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2">
-        <v>344.864</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2">
-        <v>234.2736</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="2">
-        <v>34</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5">
-        <v>2</v>
+        <v>5.35</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2">
-        <v>68</v>
+        <v>13639.998</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>80</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
-        <v>199.6824</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="4">
-        <v>96343.46</v>
+        <v>40802.176152</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1286,1022 +1606,1034 @@
     </row>
     <row r="36" spans="1:6">
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="5">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2">
-        <v>8041.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="5">
-        <v>500</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2">
-        <v>5300</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2">
-        <v>11800</v>
+        <v>198.012</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="5">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F39" s="2">
-        <v>3520</v>
+        <v>904</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2">
-        <v>7500</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="C41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="5">
-        <v>3000</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2">
-        <v>5796</v>
+        <v>5368.1936</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="C42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D43" s="5">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F43" s="2">
-        <v>3440</v>
+        <v>6860.01</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="C44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D44" s="5">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2">
-        <v>14880</v>
+        <v>904.012</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="C45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D45" s="5">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F45" s="2">
-        <v>15300</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="C46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D46" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F46" s="2">
-        <v>894</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="C47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D47" s="5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F47" s="2">
-        <v>28.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2">
-        <v>8000</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D49" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F49" s="2">
-        <v>964.26</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D50" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F50" s="2">
-        <v>535.7</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D51" s="5">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F51" s="2">
-        <v>3400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="C52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D52" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F52" s="2">
-        <v>1600</v>
+        <v>23.8844</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D53" s="5">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F53" s="2">
-        <v>1600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="C54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D54" s="5">
-        <v>0.5</v>
+        <v>55.12</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2">
-        <v>1350</v>
+        <v>2977.009152</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="C55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D55" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2">
-        <v>1600</v>
+        <v>4180.06</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="C56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D56" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2">
-        <v>137.5</v>
+        <v>649.6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="C57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F57" s="2">
-        <v>356</v>
+        <v>344.864</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2">
-        <v>100</v>
+        <v>234.2736</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="4">
-        <v>41793.0028</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="5">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1099.98</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="C60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" s="5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F60" s="2">
-        <v>1948.8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="C61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D61" s="5">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="2">
-        <v>17944.272</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="C62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D62" s="5">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F62" s="2">
-        <v>953.7984</v>
+        <v>779.056</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D63" s="5">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F63" s="2">
-        <v>719.9424</v>
+        <v>493.359</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="C64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="5">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F64" s="2">
-        <v>7742.72</v>
+        <v>199.6824</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="C65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2">
-        <v>8936.11</v>
+        <v>196.36</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="2">
+        <v>66.82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4">
+        <v>144646.934</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="C68" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="5">
-        <v>700</v>
-      </c>
-      <c r="E66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="2">
-        <v>3272.36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="C67" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="2">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="4">
-        <v>323969.49</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
+      <c r="D68" s="5">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1960</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
       <c r="C69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D69" s="5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" s="2">
-        <v>312256.6</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="5">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2">
-        <v>11712.89</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="4">
-        <v>355</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D72" s="5">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F72" s="2">
-        <v>355</v>
+        <v>16168</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="4">
-        <v>7716.8138</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="5">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1206</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D74" s="5">
-        <v>6</v>
+        <v>550</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F74" s="2">
-        <v>1617.018</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D75" s="5">
-        <v>4</v>
+        <v>825</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F75" s="2">
-        <v>1078.012</v>
+        <v>19470</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="C76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D76" s="5">
-        <v>1</v>
+        <v>725</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F76" s="2">
-        <v>250.003</v>
+        <v>17505</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="5">
-        <v>12</v>
+        <v>640</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77" s="2">
-        <v>587.9808</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D78" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F78" s="2">
-        <v>4183.8</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="4">
-        <v>10</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="5">
+        <v>320</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2">
+        <v>12000</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D80" s="5">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2">
-        <v>10</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="4">
-        <v>160592.757303</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="5">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="2">
+        <v>800</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D82" s="5">
-        <v>2967.9299</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2">
-        <v>59254.899815</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D83" s="5">
-        <v>720.53</v>
+        <v>113.4</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="2">
-        <v>15118.950688</v>
+        <v>2199.474</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="C84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D84" s="5">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" s="2">
-        <v>18.0032</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="C85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D85" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F85" s="2">
-        <v>10.9968</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="C86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D86" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F86" s="2">
-        <v>14.9988</v>
+        <v>894</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="C87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F87" s="2">
-        <v>100.004</v>
+        <v>964.26</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="C88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D88" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F88" s="2">
-        <v>149.988</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="C89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D89" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" s="2">
-        <v>132.008</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D90" s="5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F90" s="2">
-        <v>2022.608</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="C91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D91" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F91" s="2">
-        <v>783</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D92" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F92" s="2">
-        <v>342.2</v>
+        <v>535.7</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="C93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D93" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2">
-        <v>82061.13</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D94" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" s="2">
-        <v>14</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="C95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D95" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" s="2">
-        <v>360</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="C96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D96" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" s="2">
-        <v>209.97</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" s="4">
-        <v>349192.82</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
+      <c r="C97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2420</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="C98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D98" s="5">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="E98" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="F98" s="2">
-        <v>649</v>
+        <v>8041.5</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D99" s="5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="F99" s="2">
-        <v>330000</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="C100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D100" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="F100" s="2">
-        <v>2504</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="C101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D101" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="F101" s="2">
-        <v>5644</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="C102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D102" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E102" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F102" s="2">
-        <v>1320</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="C103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D103" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E103" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="F103" s="2">
-        <v>1146.34</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="C104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D104" s="5">
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F104" s="2">
-        <v>4422.5</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="C105" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" s="5">
-        <v>3</v>
-      </c>
-      <c r="E105" t="s">
-        <v>92</v>
-      </c>
-      <c r="F105" s="2">
-        <v>856.98</v>
-      </c>
+      <c r="A105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="4">
+        <v>424095.9156</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6">
       <c r="C106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D106" s="5">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2">
-        <v>1119</v>
+        <v>312156</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" s="5">
+        <v>4440</v>
+      </c>
+      <c r="E107" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="5">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>12</v>
-      </c>
       <c r="F107" s="2">
-        <v>1531</v>
+        <v>28194</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="3" t="s">
+      <c r="C108" t="s">
         <v>122</v>
       </c>
-      <c r="B108" s="4">
-        <v>6645.39808</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
+      <c r="D108" s="5">
+        <v>2657</v>
+      </c>
+      <c r="E108" t="s">
+        <v>121</v>
+      </c>
+      <c r="F108" s="2">
+        <v>16871.95</v>
+      </c>
     </row>
     <row r="109" spans="1:6">
       <c r="C109" t="s">
         <v>123</v>
       </c>
       <c r="D109" s="5">
-        <v>129.52</v>
+        <v>318</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F109" s="2">
-        <v>2529.520704</v>
+        <v>4452.3816</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2309,13 +2641,13 @@
         <v>124</v>
       </c>
       <c r="D110" s="5">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" s="2">
-        <v>2345.47</v>
+        <v>5339.5728</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2323,21 +2655,1403 @@
         <v>125</v>
       </c>
       <c r="D111" s="5">
+        <v>590</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2">
+        <v>588.584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" s="5">
+        <v>50</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2">
+        <v>700.06</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="5">
+        <v>120</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1859.712</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="5">
+        <v>801</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="2">
+        <v>292.6524</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="5">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="C116" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="5">
+        <v>206</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2">
+        <v>9476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="C117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="5">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>133</v>
+      </c>
+      <c r="F117" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="C118" t="s">
+        <v>134</v>
+      </c>
+      <c r="D118" s="5">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" s="5">
+        <v>72</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2">
+        <v>17944.272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" s="5">
+        <v>72</v>
+      </c>
+      <c r="E120" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" s="2">
+        <v>953.7984</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="C121" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="5">
+        <v>72</v>
+      </c>
+      <c r="E121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" s="2">
+        <v>719.9424</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="C122" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" s="5">
+        <v>128</v>
+      </c>
+      <c r="E122" t="s">
+        <v>66</v>
+      </c>
+      <c r="F122" s="2">
+        <v>7742.72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="C123" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" s="2">
+        <v>8936.11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="C124" t="s">
+        <v>139</v>
+      </c>
+      <c r="D124" s="5">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124" s="2">
+        <v>1948.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="5">
+        <v>700</v>
+      </c>
+      <c r="E125" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="2">
+        <v>3272.36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="C126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="4">
+        <v>13020.016</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="C128" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128" s="5">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="5">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="C130" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" s="5">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="2">
+        <v>2160.016</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="4">
+        <v>548438.79</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="C132" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" s="5">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2">
+        <v>11712.89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="C133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D133" s="5">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2">
+        <v>536725.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="4">
+        <v>355</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="4">
+        <v>11214.8138</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="C137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" s="5">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1617.018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="C138" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" s="5">
+        <v>4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1078.012</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="C139" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2">
+        <v>250.003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="C140" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140" s="5">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2">
+        <v>587.9808</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141" s="5">
+        <v>4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>157</v>
+      </c>
+      <c r="F141" s="2">
+        <v>7681.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="4">
+        <v>2910</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="C143" t="s">
+        <v>159</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="C144" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="4">
+        <v>206516.407983</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="C146" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="5">
+        <v>62</v>
+      </c>
+      <c r="E146" t="s">
+        <v>163</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" s="5">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2">
+        <v>209.97</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="C148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" s="5">
+        <v>4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2">
+        <v>116264.05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="C149" t="s">
+        <v>165</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2">
+        <v>100.004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="C150" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" s="5">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="C151" t="s">
+        <v>167</v>
+      </c>
+      <c r="D151" s="5">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="C152" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" s="5">
+        <v>4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="C153" t="s">
+        <v>169</v>
+      </c>
+      <c r="D153" s="5">
+        <v>4</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="C154" t="s">
+        <v>170</v>
+      </c>
+      <c r="D154" s="5">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="C155" t="s">
+        <v>171</v>
+      </c>
+      <c r="D155" s="5">
+        <v>2997.7899</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="2">
+        <v>59856.901303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="C156" t="s">
+        <v>172</v>
+      </c>
+      <c r="D156" s="5">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>173</v>
+      </c>
+      <c r="F156" s="2">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="C157" t="s">
+        <v>174</v>
+      </c>
+      <c r="D157" s="5">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="C158" t="s">
+        <v>175</v>
+      </c>
+      <c r="D158" s="5">
+        <v>879.99</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="2">
+        <v>18627.89988</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="C159" t="s">
+        <v>176</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2">
+        <v>10.9968</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="C160" t="s">
+        <v>177</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="2">
+        <v>18.0032</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="C161" t="s">
+        <v>178</v>
+      </c>
+      <c r="D161" s="5">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2">
+        <v>14.9988</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="C162" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="5">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="2">
+        <v>132.008</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="C163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" s="5">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="2">
+        <v>149.988</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="C164" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" s="5">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
+        <v>157</v>
+      </c>
+      <c r="F164" s="2">
+        <v>2022.608</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="C165" t="s">
+        <v>182</v>
+      </c>
+      <c r="D165" s="5">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="C166" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" s="5">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>157</v>
+      </c>
+      <c r="F166" s="2">
+        <v>342.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" s="4">
+        <v>2223.7386</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="C168" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" s="5">
+        <v>50</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="2">
+        <v>71.92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="C169" t="s">
+        <v>186</v>
+      </c>
+      <c r="D169" s="5">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="2">
+        <v>36.8184</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="C170" t="s">
+        <v>187</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>188</v>
+      </c>
+      <c r="F170" s="2">
+        <v>46.342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="C171" t="s">
+        <v>189</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="2">
+        <v>166.843</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="C172" t="s">
+        <v>190</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>191</v>
+      </c>
+      <c r="F172" s="2">
+        <v>36.5284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="C173" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" s="5">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>191</v>
+      </c>
+      <c r="F173" s="2">
+        <v>28.4548</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="C174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" s="5">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>191</v>
+      </c>
+      <c r="F174" s="2">
+        <v>22.736</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="C175" t="s">
+        <v>194</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>173</v>
+      </c>
+      <c r="F175" s="2">
+        <v>68.1152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="C176" t="s">
+        <v>195</v>
+      </c>
+      <c r="D176" s="5">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>173</v>
+      </c>
+      <c r="F176" s="2">
+        <v>70.7832</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="C177" t="s">
+        <v>196</v>
+      </c>
+      <c r="D177" s="5">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>66</v>
+      </c>
+      <c r="F177" s="2">
+        <v>12.0292</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="C178" t="s">
+        <v>197</v>
+      </c>
+      <c r="D178" s="5">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>66</v>
+      </c>
+      <c r="F178" s="2">
+        <v>12.0292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="C179" t="s">
+        <v>198</v>
+      </c>
+      <c r="D179" s="5">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>66</v>
+      </c>
+      <c r="F179" s="2">
+        <v>99.0408</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="C180" t="s">
+        <v>199</v>
+      </c>
+      <c r="D180" s="5">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>66</v>
+      </c>
+      <c r="F180" s="2">
+        <v>25.2648</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="C181" t="s">
+        <v>200</v>
+      </c>
+      <c r="D181" s="5">
+        <v>6</v>
+      </c>
+      <c r="E181" t="s">
+        <v>66</v>
+      </c>
+      <c r="F181" s="2">
+        <v>30.9024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="C182" t="s">
+        <v>201</v>
+      </c>
+      <c r="D182" s="5">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="2">
+        <v>41.0176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="C183" t="s">
+        <v>202</v>
+      </c>
+      <c r="D183" s="5">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>66</v>
+      </c>
+      <c r="F183" s="2">
+        <v>364.6692</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="C184" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" s="5">
+        <v>6</v>
+      </c>
+      <c r="E184" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="2">
+        <v>25.2648</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="C185" t="s">
+        <v>204</v>
+      </c>
+      <c r="D185" s="5">
+        <v>6</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="2">
+        <v>29.6496</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="C186" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" s="5">
+        <v>50</v>
+      </c>
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="2">
+        <v>780.68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="C187" t="s">
+        <v>206</v>
+      </c>
+      <c r="D187" s="5">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>191</v>
+      </c>
+      <c r="F187" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="C188" t="s">
+        <v>207</v>
+      </c>
+      <c r="D188" s="5">
+        <v>200</v>
+      </c>
+      <c r="E188" t="s">
+        <v>66</v>
+      </c>
+      <c r="F188" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="C189" t="s">
+        <v>208</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>209</v>
+      </c>
+      <c r="F189" s="2">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B190" s="4">
+        <v>363762.31</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="C191" t="s">
+        <v>211</v>
+      </c>
+      <c r="D191" s="5">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="2">
+        <v>706.09</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="C192" t="s">
+        <v>212</v>
+      </c>
+      <c r="D192" s="5">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="C193" t="s">
+        <v>213</v>
+      </c>
+      <c r="D193" s="5">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="2">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="C194" t="s">
+        <v>214</v>
+      </c>
+      <c r="D194" s="5">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="2">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="C195" t="s">
+        <v>215</v>
+      </c>
+      <c r="D195" s="5">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>157</v>
+      </c>
+      <c r="F195" s="2">
+        <v>3787.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="C196" t="s">
+        <v>216</v>
+      </c>
+      <c r="D196" s="5">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" s="2">
+        <v>4422.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="C197" t="s">
+        <v>217</v>
+      </c>
+      <c r="D197" s="5">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>157</v>
+      </c>
+      <c r="F197" s="2">
+        <v>1912.98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="C198" t="s">
+        <v>218</v>
+      </c>
+      <c r="D198" s="5">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>157</v>
+      </c>
+      <c r="F198" s="2">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="C199" t="s">
+        <v>219</v>
+      </c>
+      <c r="D199" s="5">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>157</v>
+      </c>
+      <c r="F199" s="2">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="C200" t="s">
+        <v>220</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>157</v>
+      </c>
+      <c r="F200" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="C201" t="s">
+        <v>221</v>
+      </c>
+      <c r="D201" s="5">
+        <v>4</v>
+      </c>
+      <c r="E201" t="s">
+        <v>157</v>
+      </c>
+      <c r="F201" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="C202" t="s">
+        <v>222</v>
+      </c>
+      <c r="D202" s="5">
+        <v>2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" s="2">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="C203" t="s">
+        <v>223</v>
+      </c>
+      <c r="D203" s="5">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>157</v>
+      </c>
+      <c r="F203" s="2">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="C204" t="s">
+        <v>224</v>
+      </c>
+      <c r="D204" s="5">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
+        <v>157</v>
+      </c>
+      <c r="F204" s="2">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="C205" t="s">
+        <v>225</v>
+      </c>
+      <c r="D205" s="5">
+        <v>2</v>
+      </c>
+      <c r="E205" t="s">
+        <v>157</v>
+      </c>
+      <c r="F205" s="2">
+        <v>1146.34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B206" s="4">
+        <v>10315.33808</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="C207" t="s">
+        <v>227</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="C208" t="s">
+        <v>228</v>
+      </c>
+      <c r="D208" s="5">
+        <v>129.52</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="2">
+        <v>2529.520704</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="C209" t="s">
+        <v>229</v>
+      </c>
+      <c r="D209" s="5">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="2">
+        <v>3599.94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="C210" t="s">
+        <v>230</v>
+      </c>
+      <c r="D210" s="5">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="2">
+        <v>2345.47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="C211" t="s">
+        <v>231</v>
+      </c>
+      <c r="D211" s="5">
         <v>83.98</v>
       </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="2">
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="2">
         <v>1770.407376</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="E112" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F112" s="7">
-        <v>1032754.021735</v>
+    <row r="212" spans="1:6">
+      <c r="E212" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F212" s="7">
+        <v>1885417.366215</v>
       </c>
     </row>
   </sheetData>
